--- a/dummy HRSG1.xlsx
+++ b/dummy HRSG1.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Apps\Inpection tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\OneDrive\Documents\Code Projects\PYTHON\apps\Inspection App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4EB1ADA-0882-4938-B9FF-942D65CC1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E098A1B-6939-4F8A-8DB5-13CDF5435E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD9630B2-45BF-45A5-8E1B-C94A6013BD24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD9630B2-45BF-45A5-8E1B-C94A6013BD24}"/>
   </bookViews>
   <sheets>
     <sheet name="HRSG 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -984,12 +981,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -999,6 +990,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -1099,7 +1096,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HRSG 1'!$AL$2</c:f>
+              <c:f>'HRSG 1'!$AK$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,7 +1197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HRSG 1'!$AL$3:$AL$26</c:f>
+              <c:f>'HRSG 1'!$AK$3:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1290,7 +1287,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HRSG 1'!$AQ$2</c:f>
+              <c:f>'HRSG 1'!$AP$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1391,7 +1388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HRSG 1'!$AQ$3:$AQ$26</c:f>
+              <c:f>'HRSG 1'!$AP$3:$AP$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1496,7 +1493,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HRSG 1'!$AK$2</c:f>
+              <c:f>'HRSG 1'!$AJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1609,7 +1606,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HRSG 1'!$AK$3:$AK$26</c:f>
+              <c:f>'HRSG 1'!$AJ$3:$AJ$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1700,7 +1697,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HRSG 1'!$AP$2</c:f>
+              <c:f>'HRSG 1'!$AO$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1813,7 +1810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HRSG 1'!$AP$3:$AP$26</c:f>
+              <c:f>'HRSG 1'!$AO$3:$AO$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2308,7 +2305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2323,7 +2320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HRSG 1'!$AU$2</c:f>
+              <c:f>'HRSG 1'!$AT$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2438,7 +2435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HRSG 1'!$AU$3:$AU$26</c:f>
+              <c:f>'HRSG 1'!$AT$3:$AT$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4064,13 +4061,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>567788</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>130649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>640565</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>22164</xdr:rowOff>
@@ -4103,15 +4100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>362815</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>619990</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>916996</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>131618</xdr:rowOff>
+      <xdr:colOff>193096</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4141,604 +4138,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HRSG 1"/>
-      <sheetName val="HRSG 2"/>
-      <sheetName val="HRSG 3"/>
-      <sheetName val="HRSG 4"/>
-      <sheetName val="HRSG 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="AD2" t="str">
-            <v>Design Travel (mm)(+Y)</v>
-          </cell>
-          <cell r="AK2" t="str">
-            <v>Hot Position (mm)</v>
-          </cell>
-          <cell r="AL2" t="str">
-            <v>Hot Design (mm)</v>
-          </cell>
-          <cell r="AP2" t="str">
-            <v>Cold Position (mm)</v>
-          </cell>
-          <cell r="AQ2" t="str">
-            <v>Cold Design (mm)</v>
-          </cell>
-          <cell r="AU2" t="str">
-            <v>Cold to Hot Travel (mm)(+Y)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3" t="str">
-            <v>SH103-15CJ1G-H-C001</v>
-          </cell>
-          <cell r="AD3">
-            <v>-28</v>
-          </cell>
-          <cell r="AK3">
-            <v>49</v>
-          </cell>
-          <cell r="AL3">
-            <v>64</v>
-          </cell>
-          <cell r="AP3">
-            <v>31</v>
-          </cell>
-          <cell r="AQ3">
-            <v>36</v>
-          </cell>
-          <cell r="AU3">
-            <v>-18</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4" t="str">
-            <v>SH103-15CJ1G-H-C002</v>
-          </cell>
-          <cell r="AD4">
-            <v>3</v>
-          </cell>
-          <cell r="AK4">
-            <v>34</v>
-          </cell>
-          <cell r="AL4">
-            <v>49</v>
-          </cell>
-          <cell r="AP4">
-            <v>44</v>
-          </cell>
-          <cell r="AQ4">
-            <v>52</v>
-          </cell>
-          <cell r="AU4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5" t="str">
-            <v>SH103-15CJ1G-H-C003</v>
-          </cell>
-          <cell r="AD5">
-            <v>52</v>
-          </cell>
-          <cell r="AK5">
-            <v>92</v>
-          </cell>
-          <cell r="AL5">
-            <v>47</v>
-          </cell>
-          <cell r="AP5">
-            <v>100</v>
-          </cell>
-          <cell r="AQ5">
-            <v>99</v>
-          </cell>
-          <cell r="AU5">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6" t="str">
-            <v>SH103-15CJ1G-H-C004</v>
-          </cell>
-          <cell r="AD6">
-            <v>20</v>
-          </cell>
-          <cell r="AK6">
-            <v>67</v>
-          </cell>
-          <cell r="AL6">
-            <v>40</v>
-          </cell>
-          <cell r="AP6">
-            <v>62</v>
-          </cell>
-          <cell r="AQ6">
-            <v>60</v>
-          </cell>
-          <cell r="AU6">
-            <v>-5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="U7" t="str">
-            <v>SH103-15CJ1G-H-C005</v>
-          </cell>
-          <cell r="AD7">
-            <v>-18</v>
-          </cell>
-          <cell r="AK7">
-            <v>73</v>
-          </cell>
-          <cell r="AL7">
-            <v>59</v>
-          </cell>
-          <cell r="AP7">
-            <v>55</v>
-          </cell>
-          <cell r="AQ7">
-            <v>41</v>
-          </cell>
-          <cell r="AU7">
-            <v>-18</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="U8" t="str">
-            <v>SH103-15CJ1G-H-C005</v>
-          </cell>
-          <cell r="AD8">
-            <v>-17</v>
-          </cell>
-          <cell r="AK8">
-            <v>82</v>
-          </cell>
-          <cell r="AL8">
-            <v>59</v>
-          </cell>
-          <cell r="AP8">
-            <v>60</v>
-          </cell>
-          <cell r="AQ8">
-            <v>42</v>
-          </cell>
-          <cell r="AU8">
-            <v>-22</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9" t="str">
-            <v>630-SH180-PS-0-001</v>
-          </cell>
-          <cell r="AD9">
-            <v>-10</v>
-          </cell>
-          <cell r="AK9">
-            <v>68</v>
-          </cell>
-          <cell r="AL9">
-            <v>65</v>
-          </cell>
-          <cell r="AP9">
-            <v>54</v>
-          </cell>
-          <cell r="AQ9">
-            <v>55</v>
-          </cell>
-          <cell r="AU9">
-            <v>-14</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="U10" t="str">
-            <v>SH115-15CJ1G-H-C001</v>
-          </cell>
-          <cell r="AD10">
-            <v>17</v>
-          </cell>
-          <cell r="AK10">
-            <v>56</v>
-          </cell>
-          <cell r="AL10">
-            <v>42</v>
-          </cell>
-          <cell r="AP10">
-            <v>43</v>
-          </cell>
-          <cell r="AQ10">
-            <v>59</v>
-          </cell>
-          <cell r="AU10">
-            <v>-13</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="U11" t="str">
-            <v>SH115-15CJ1G-H-C001</v>
-          </cell>
-          <cell r="AD11">
-            <v>15</v>
-          </cell>
-          <cell r="AK11">
-            <v>56</v>
-          </cell>
-          <cell r="AL11">
-            <v>43</v>
-          </cell>
-          <cell r="AP11">
-            <v>39</v>
-          </cell>
-          <cell r="AQ11">
-            <v>58</v>
-          </cell>
-          <cell r="AU11">
-            <v>-17</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="U12" t="str">
-            <v>630-SH183-PS-0-001</v>
-          </cell>
-          <cell r="AD12">
-            <v>-10</v>
-          </cell>
-          <cell r="AK12">
-            <v>32</v>
-          </cell>
-          <cell r="AL12">
-            <v>30</v>
-          </cell>
-          <cell r="AP12">
-            <v>22</v>
-          </cell>
-          <cell r="AQ12">
-            <v>20</v>
-          </cell>
-          <cell r="AU12">
-            <v>-10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="U13" t="str">
-            <v>630-SH183-PS-0-005</v>
-          </cell>
-          <cell r="AD13">
-            <v>-22</v>
-          </cell>
-          <cell r="AK13">
-            <v>73</v>
-          </cell>
-          <cell r="AL13">
-            <v>87</v>
-          </cell>
-          <cell r="AP13">
-            <v>67</v>
-          </cell>
-          <cell r="AQ13">
-            <v>65</v>
-          </cell>
-          <cell r="AU13">
-            <v>-6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="U14" t="str">
-            <v>SH102-HUL05-DN250-A02</v>
-          </cell>
-          <cell r="AD14">
-            <v>18</v>
-          </cell>
-          <cell r="AK14">
-            <v>58</v>
-          </cell>
-          <cell r="AL14">
-            <v>46</v>
-          </cell>
-          <cell r="AP14">
-            <v>67</v>
-          </cell>
-          <cell r="AQ14">
-            <v>64</v>
-          </cell>
-          <cell r="AU14">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="U15" t="str">
-            <v>SH101-HUL11-DN350-O02</v>
-          </cell>
-          <cell r="AD15">
-            <v>3</v>
-          </cell>
-          <cell r="AK15">
-            <v>36</v>
-          </cell>
-          <cell r="AL15">
-            <v>12</v>
-          </cell>
-          <cell r="AP15">
-            <v>14</v>
-          </cell>
-          <cell r="AQ15">
-            <v>15</v>
-          </cell>
-          <cell r="AU15">
-            <v>-22</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="U16" t="str">
-            <v>SH101-HUL12-DN350-P10</v>
-          </cell>
-          <cell r="AD16">
-            <v>13</v>
-          </cell>
-          <cell r="AK16">
-            <v>85</v>
-          </cell>
-          <cell r="AL16">
-            <v>79</v>
-          </cell>
-          <cell r="AP16">
-            <v>91</v>
-          </cell>
-          <cell r="AQ16">
-            <v>92</v>
-          </cell>
-          <cell r="AU16">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="U17" t="str">
-            <v>SH101-HUL12-DN350-P09</v>
-          </cell>
-          <cell r="AD17">
-            <v>26</v>
-          </cell>
-          <cell r="AK17">
-            <v>82</v>
-          </cell>
-          <cell r="AL17">
-            <v>71</v>
-          </cell>
-          <cell r="AP17">
-            <v>98</v>
-          </cell>
-          <cell r="AQ17">
-            <v>97</v>
-          </cell>
-          <cell r="AU17">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="U18" t="str">
-            <v>SH101-HUL13-DN350-P14</v>
-          </cell>
-          <cell r="AD18">
-            <v>33</v>
-          </cell>
-          <cell r="AK18">
-            <v>20</v>
-          </cell>
-          <cell r="AL18">
-            <v>15</v>
-          </cell>
-          <cell r="AP18">
-            <v>35</v>
-          </cell>
-          <cell r="AQ18">
-            <v>48</v>
-          </cell>
-          <cell r="AU18">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="U19" t="str">
-            <v>SH102-HUL17-DN250-X06</v>
-          </cell>
-          <cell r="AD19">
-            <v>8</v>
-          </cell>
-          <cell r="AK19">
-            <v>29</v>
-          </cell>
-          <cell r="AL19">
-            <v>26</v>
-          </cell>
-          <cell r="AP19">
-            <v>31</v>
-          </cell>
-          <cell r="AQ19">
-            <v>34</v>
-          </cell>
-          <cell r="AU19">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="U20" t="str">
-            <v>SH102-HUL17-DN250-W06</v>
-          </cell>
-          <cell r="AD20">
-            <v>8</v>
-          </cell>
-          <cell r="AK20">
-            <v>9</v>
-          </cell>
-          <cell r="AL20">
-            <v>7</v>
-          </cell>
-          <cell r="AP20">
-            <v>12</v>
-          </cell>
-          <cell r="AQ20">
-            <v>15</v>
-          </cell>
-          <cell r="AU20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="U21" t="str">
-            <v>SH102-HUL21-DN350-AA17</v>
-          </cell>
-          <cell r="AD21">
-            <v>9</v>
-          </cell>
-          <cell r="AK21">
-            <v>8</v>
-          </cell>
-          <cell r="AL21">
-            <v>18</v>
-          </cell>
-          <cell r="AP21">
-            <v>13</v>
-          </cell>
-          <cell r="AQ21">
-            <v>27</v>
-          </cell>
-          <cell r="AU21">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="U22" t="str">
-            <v>SH102-HUL21-DN350-AA25</v>
-          </cell>
-          <cell r="AD22">
-            <v>-62</v>
-          </cell>
-          <cell r="AK22">
-            <v>76</v>
-          </cell>
-          <cell r="AL22">
-            <v>81</v>
-          </cell>
-          <cell r="AP22">
-            <v>20</v>
-          </cell>
-          <cell r="AQ22">
-            <v>19</v>
-          </cell>
-          <cell r="AU22">
-            <v>-56</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="U23" t="str">
-            <v>SH102-HUL21-DN350-AA19</v>
-          </cell>
-          <cell r="AD23">
-            <v>-59</v>
-          </cell>
-          <cell r="AK23">
-            <v>69</v>
-          </cell>
-          <cell r="AL23">
-            <v>79</v>
-          </cell>
-          <cell r="AP23">
-            <v>26</v>
-          </cell>
-          <cell r="AQ23">
-            <v>20</v>
-          </cell>
-          <cell r="AU23">
-            <v>-43</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="U24" t="str">
-            <v>SH102-HUL21-DN350-AA21</v>
-          </cell>
-          <cell r="AD24">
-            <v>-64</v>
-          </cell>
-          <cell r="AK24">
-            <v>70</v>
-          </cell>
-          <cell r="AL24">
-            <v>83</v>
-          </cell>
-          <cell r="AP24">
-            <v>20</v>
-          </cell>
-          <cell r="AQ24">
-            <v>19</v>
-          </cell>
-          <cell r="AU24">
-            <v>-50</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25" t="str">
-            <v>SH102-HUL23-DN350-AA24</v>
-          </cell>
-          <cell r="AD25">
-            <v>-63</v>
-          </cell>
-          <cell r="AK25">
-            <v>75</v>
-          </cell>
-          <cell r="AL25">
-            <v>81</v>
-          </cell>
-          <cell r="AP25">
-            <v>19</v>
-          </cell>
-          <cell r="AQ25">
-            <v>18</v>
-          </cell>
-          <cell r="AU25">
-            <v>-56</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="U26" t="str">
-            <v>SH102-HUL26-DN350-AA23</v>
-          </cell>
-          <cell r="AD26">
-            <v>-69</v>
-          </cell>
-          <cell r="AK26">
-            <v>69</v>
-          </cell>
-          <cell r="AL26">
-            <v>69</v>
-          </cell>
-          <cell r="AP26">
-            <v>0</v>
-          </cell>
-          <cell r="AQ26">
-            <v>0</v>
-          </cell>
-          <cell r="AU26">
-            <v>-69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4776,7 +4179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4882,7 +4285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5024,7 +4427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5035,11 +4438,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AU26"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="AI2" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5078,176 +4481,175 @@
     <col min="32" max="32" width="39.5703125" customWidth="1"/>
     <col min="33" max="33" width="13.5703125" customWidth="1"/>
     <col min="34" max="34" width="30.5703125" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" customWidth="1"/>
-    <col min="36" max="36" width="24.42578125" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" customWidth="1"/>
-    <col min="40" max="40" width="8.140625" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.42578125" customWidth="1"/>
-    <col min="44" max="44" width="25.42578125" customWidth="1"/>
-    <col min="45" max="45" width="11.85546875" customWidth="1"/>
-    <col min="46" max="46" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.42578125" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" customWidth="1"/>
+    <col min="40" max="40" width="14.7109375" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.42578125" customWidth="1"/>
+    <col min="43" max="43" width="25.42578125" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ1" s="1" t="s">
+    <row r="1" spans="1:46" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="2" t="s">
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
     </row>
-    <row r="2" spans="1:47" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:46" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AI2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AL2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AM2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AP2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AS2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AT2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -5317,42 +4719,41 @@
         <v>61</v>
       </c>
       <c r="AD3">
-        <f xml:space="preserve"> AQ3-AL3</f>
+        <f xml:space="preserve"> AP3-AK3</f>
         <v>-28</v>
       </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10">
+      <c r="AI3" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ3">
+        <v>49</v>
+      </c>
       <c r="AK3">
-        <v>49</v>
-      </c>
-      <c r="AL3">
         <v>64</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AN3" s="8">
         <v>44714</v>
       </c>
+      <c r="AO3">
+        <v>31</v>
+      </c>
       <c r="AP3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AQ3">
-        <v>36</v>
-      </c>
-      <c r="AR3">
         <v>5</v>
       </c>
-      <c r="AS3" s="11">
-        <f>AR3/AD3*100</f>
+      <c r="AR3" s="9">
+        <f>AQ3/AD3*100</f>
         <v>-17.857142857142858</v>
       </c>
-      <c r="AU3">
-        <f>AP3-AK3</f>
+      <c r="AT3">
+        <f>AO3-AJ3</f>
         <v>-18</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -5422,42 +4823,41 @@
         <v>70</v>
       </c>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD26" si="0" xml:space="preserve"> AQ4-AL4</f>
+        <f t="shared" ref="AD4:AD26" si="0" xml:space="preserve"> AP4-AK4</f>
         <v>3</v>
       </c>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10">
+      <c r="AI4" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ4">
+        <v>34</v>
+      </c>
       <c r="AK4">
-        <v>34</v>
-      </c>
-      <c r="AL4">
         <v>49</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AN4" s="8">
         <v>44714</v>
       </c>
+      <c r="AO4">
+        <v>44</v>
+      </c>
       <c r="AP4">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AQ4">
-        <v>52</v>
-      </c>
-      <c r="AR4">
         <v>8</v>
       </c>
-      <c r="AS4" s="11">
-        <f t="shared" ref="AS4:AS26" si="1">AR4/AD4*100</f>
+      <c r="AR4" s="9">
+        <f>AQ4/AD4*100</f>
         <v>266.66666666666663</v>
       </c>
-      <c r="AU4">
-        <f t="shared" ref="AU4:AU26" si="2">AP4-AK4</f>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT26" si="1">AO4-AJ4</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
@@ -5530,42 +4930,41 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10">
+      <c r="AI5" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ5">
+        <v>92</v>
+      </c>
       <c r="AK5">
-        <v>92</v>
-      </c>
-      <c r="AL5">
         <v>47</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AN5" s="8">
         <v>44714</v>
       </c>
+      <c r="AO5">
+        <v>100</v>
+      </c>
       <c r="AP5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AQ5">
-        <v>99</v>
-      </c>
-      <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AR5" s="9">
+        <f>AQ5/AD5*100</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT5">
         <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
@@ -5638,39 +5037,38 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10">
+      <c r="AI6" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ6">
+        <v>67</v>
+      </c>
       <c r="AK6">
-        <v>67</v>
-      </c>
-      <c r="AL6">
         <v>40</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AN6" s="8">
         <v>44714</v>
       </c>
+      <c r="AO6">
+        <v>62</v>
+      </c>
       <c r="AP6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AQ6">
-        <v>60</v>
-      </c>
-      <c r="AR6">
         <v>2</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AR6" s="9">
+        <f>AQ6/AD6*100</f>
+        <v>10</v>
+      </c>
+      <c r="AT6">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B7" t="s">
@@ -5743,39 +5141,38 @@
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10">
+      <c r="AI7" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ7">
+        <v>73</v>
+      </c>
       <c r="AK7">
-        <v>73</v>
-      </c>
-      <c r="AL7">
         <v>59</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AN7" s="8">
         <v>44714</v>
       </c>
+      <c r="AO7">
+        <v>55</v>
+      </c>
       <c r="AP7">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AQ7">
-        <v>41</v>
-      </c>
-      <c r="AR7">
         <v>14</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AR7" s="9">
+        <f>AQ7/AD7*100</f>
+        <v>-77.777777777777786</v>
+      </c>
+      <c r="AT7">
         <f t="shared" si="1"/>
-        <v>-77.777777777777786</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B8" t="s">
@@ -5848,39 +5245,38 @@
         <f t="shared" si="0"/>
         <v>-17</v>
       </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10">
+      <c r="AI8" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ8">
+        <v>82</v>
+      </c>
       <c r="AK8">
-        <v>82</v>
-      </c>
-      <c r="AL8">
         <v>59</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AN8" s="8">
         <v>44714</v>
       </c>
+      <c r="AO8">
+        <v>60</v>
+      </c>
       <c r="AP8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AQ8">
-        <v>42</v>
-      </c>
-      <c r="AR8">
         <v>18</v>
       </c>
-      <c r="AS8" s="11">
+      <c r="AR8" s="9">
+        <f>AQ8/AD8*100</f>
+        <v>-105.88235294117648</v>
+      </c>
+      <c r="AT8">
         <f t="shared" si="1"/>
-        <v>-105.88235294117648</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C9" t="s">
@@ -5920,39 +5316,38 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10">
+      <c r="AI9" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ9">
+        <v>68</v>
+      </c>
       <c r="AK9">
-        <v>68</v>
-      </c>
-      <c r="AL9">
         <v>65</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AN9" s="8">
         <v>44714</v>
       </c>
+      <c r="AO9">
+        <v>54</v>
+      </c>
       <c r="AP9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ9">
-        <v>55</v>
-      </c>
-      <c r="AR9">
         <v>1</v>
       </c>
-      <c r="AS9" s="11">
+      <c r="AR9" s="9">
+        <f>AQ9/AD9*100</f>
+        <v>-10</v>
+      </c>
+      <c r="AT9">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B10" t="s">
@@ -6013,39 +5408,38 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10">
+      <c r="AI10" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ10">
+        <v>56</v>
+      </c>
       <c r="AK10">
-        <v>56</v>
-      </c>
-      <c r="AL10">
         <v>42</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AN10" s="8">
         <v>44714</v>
       </c>
+      <c r="AO10">
+        <v>43</v>
+      </c>
       <c r="AP10">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AQ10">
-        <v>59</v>
-      </c>
-      <c r="AR10">
         <v>18</v>
       </c>
-      <c r="AS10" s="11">
+      <c r="AR10" s="9">
+        <f>AQ10/AD10*100</f>
+        <v>105.88235294117648</v>
+      </c>
+      <c r="AT10">
         <f t="shared" si="1"/>
-        <v>105.88235294117648</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B11" t="s">
@@ -6115,39 +5509,38 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10">
+      <c r="AI11" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ11">
+        <v>56</v>
+      </c>
       <c r="AK11">
-        <v>56</v>
-      </c>
-      <c r="AL11">
         <v>43</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AN11" s="8">
         <v>44714</v>
       </c>
+      <c r="AO11">
+        <v>39</v>
+      </c>
       <c r="AP11">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AQ11">
-        <v>58</v>
-      </c>
-      <c r="AR11">
         <v>19</v>
       </c>
-      <c r="AS11" s="11">
+      <c r="AR11" s="9">
+        <f>AQ11/AD11*100</f>
+        <v>126.66666666666666</v>
+      </c>
+      <c r="AT11">
         <f t="shared" si="1"/>
-        <v>126.66666666666666</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C12" t="s">
@@ -6190,39 +5583,38 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10">
+      <c r="AI12" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ12">
+        <v>32</v>
+      </c>
       <c r="AK12">
-        <v>32</v>
-      </c>
-      <c r="AL12">
         <v>30</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AN12" s="8">
         <v>44714</v>
       </c>
+      <c r="AO12">
+        <v>22</v>
+      </c>
       <c r="AP12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ12">
-        <v>20</v>
-      </c>
-      <c r="AR12">
         <v>2</v>
       </c>
-      <c r="AS12" s="11">
+      <c r="AR12" s="9">
+        <f>AQ12/AD12*100</f>
+        <v>-20</v>
+      </c>
+      <c r="AT12">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C13" t="s">
@@ -6265,39 +5657,38 @@
         <f t="shared" si="0"/>
         <v>-22</v>
       </c>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10">
+      <c r="AI13" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ13">
+        <v>73</v>
+      </c>
       <c r="AK13">
-        <v>73</v>
-      </c>
-      <c r="AL13">
         <v>87</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AN13" s="8">
         <v>44714</v>
       </c>
+      <c r="AO13">
+        <v>67</v>
+      </c>
       <c r="AP13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ13">
-        <v>65</v>
-      </c>
-      <c r="AR13">
         <v>2</v>
       </c>
-      <c r="AS13" s="11">
+      <c r="AR13" s="9">
+        <f>AQ13/AD13*100</f>
+        <v>-9.0909090909090917</v>
+      </c>
+      <c r="AT13">
         <f t="shared" si="1"/>
-        <v>-9.0909090909090917</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C14" t="s">
@@ -6340,39 +5731,38 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10">
+      <c r="AI14" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ14">
+        <v>58</v>
+      </c>
       <c r="AK14">
-        <v>58</v>
-      </c>
-      <c r="AL14">
         <v>46</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AN14" s="8">
         <v>44714</v>
       </c>
+      <c r="AO14">
+        <v>67</v>
+      </c>
       <c r="AP14">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AQ14">
-        <v>64</v>
-      </c>
-      <c r="AR14">
         <v>3</v>
       </c>
-      <c r="AS14" s="11">
+      <c r="AR14" s="9">
+        <f>AQ14/AD14*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AT14">
         <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
@@ -6415,39 +5805,38 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10">
+      <c r="AI15" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ15">
+        <v>36</v>
+      </c>
       <c r="AK15">
-        <v>36</v>
-      </c>
-      <c r="AL15">
         <v>12</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AN15" s="8">
         <v>44714</v>
       </c>
+      <c r="AO15">
+        <v>14</v>
+      </c>
       <c r="AP15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15">
-        <v>15</v>
-      </c>
-      <c r="AR15">
         <v>1</v>
       </c>
-      <c r="AS15" s="11">
+      <c r="AR15" s="9">
+        <f>AQ15/AD15*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AT15">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C16" t="s">
@@ -6490,39 +5879,38 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10">
+      <c r="AI16" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ16">
+        <v>85</v>
+      </c>
       <c r="AK16">
-        <v>85</v>
-      </c>
-      <c r="AL16">
         <v>79</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AN16" s="8">
         <v>44714</v>
       </c>
+      <c r="AO16">
+        <v>91</v>
+      </c>
       <c r="AP16">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ16">
-        <v>92</v>
-      </c>
-      <c r="AR16">
         <v>1</v>
       </c>
-      <c r="AS16" s="11">
+      <c r="AR16" s="9">
+        <f>AQ16/AD16*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="AT16">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C17" t="s">
@@ -6565,39 +5953,38 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10">
+      <c r="AI17" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ17">
+        <v>82</v>
+      </c>
       <c r="AK17">
-        <v>82</v>
-      </c>
-      <c r="AL17">
         <v>71</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AN17" s="8">
         <v>44714</v>
       </c>
+      <c r="AO17">
+        <v>98</v>
+      </c>
       <c r="AP17">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ17">
-        <v>97</v>
-      </c>
-      <c r="AR17">
         <v>1</v>
       </c>
-      <c r="AS17" s="11">
+      <c r="AR17" s="9">
+        <f>AQ17/AD17*100</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AT17">
         <f t="shared" si="1"/>
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C18" t="s">
@@ -6640,39 +6027,38 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10">
+      <c r="AI18" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
       <c r="AK18">
-        <v>20</v>
-      </c>
-      <c r="AL18">
         <v>15</v>
       </c>
-      <c r="AO18" s="10">
+      <c r="AN18" s="8">
         <v>44714</v>
       </c>
+      <c r="AO18">
+        <v>35</v>
+      </c>
       <c r="AP18">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AQ18">
-        <v>48</v>
-      </c>
-      <c r="AR18">
         <v>13</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AR18" s="9">
+        <f>AQ18/AD18*100</f>
+        <v>39.393939393939391</v>
+      </c>
+      <c r="AT18">
         <f t="shared" si="1"/>
-        <v>39.393939393939391</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C19" t="s">
@@ -6715,39 +6101,38 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10">
+      <c r="AI19" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ19">
+        <v>29</v>
+      </c>
       <c r="AK19">
-        <v>29</v>
-      </c>
-      <c r="AL19">
         <v>26</v>
       </c>
-      <c r="AO19" s="10">
+      <c r="AN19" s="8">
         <v>44714</v>
       </c>
+      <c r="AO19">
+        <v>31</v>
+      </c>
       <c r="AP19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AQ19">
-        <v>34</v>
-      </c>
-      <c r="AR19">
         <v>3</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AR19" s="9">
+        <f>AQ19/AD19*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="AT19">
         <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C20" t="s">
@@ -6790,39 +6175,38 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10">
+      <c r="AI20" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ20">
+        <v>9</v>
+      </c>
       <c r="AK20">
-        <v>9</v>
-      </c>
-      <c r="AL20">
         <v>7</v>
       </c>
-      <c r="AO20" s="10">
+      <c r="AN20" s="8">
         <v>44714</v>
       </c>
+      <c r="AO20">
+        <v>12</v>
+      </c>
       <c r="AP20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ20">
-        <v>15</v>
-      </c>
-      <c r="AR20">
         <v>3</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AR20" s="9">
+        <f>AQ20/AD20*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="AT20">
         <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C21" t="s">
@@ -6865,39 +6249,38 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10">
+      <c r="AI21" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ21">
+        <v>8</v>
+      </c>
       <c r="AK21">
-        <v>8</v>
-      </c>
-      <c r="AL21">
         <v>18</v>
       </c>
-      <c r="AO21" s="10">
+      <c r="AN21" s="8">
         <v>44714</v>
       </c>
+      <c r="AO21">
+        <v>13</v>
+      </c>
       <c r="AP21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AQ21">
-        <v>27</v>
-      </c>
-      <c r="AR21">
         <v>14</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AR21" s="9">
+        <f>AQ21/AD21*100</f>
+        <v>155.55555555555557</v>
+      </c>
+      <c r="AT21">
         <f t="shared" si="1"/>
-        <v>155.55555555555557</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C22" t="s">
@@ -6940,39 +6323,38 @@
         <f t="shared" si="0"/>
         <v>-62</v>
       </c>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10">
+      <c r="AI22" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ22">
+        <v>76</v>
+      </c>
       <c r="AK22">
-        <v>76</v>
-      </c>
-      <c r="AL22">
         <v>81</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AN22" s="8">
         <v>44714</v>
       </c>
+      <c r="AO22">
+        <v>20</v>
+      </c>
       <c r="AP22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ22">
-        <v>19</v>
-      </c>
-      <c r="AR22">
         <v>1</v>
       </c>
-      <c r="AS22" s="11">
+      <c r="AR22" s="9">
+        <f>AQ22/AD22*100</f>
+        <v>-1.6129032258064515</v>
+      </c>
+      <c r="AT22">
         <f t="shared" si="1"/>
-        <v>-1.6129032258064515</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="2"/>
         <v>-56</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C23" t="s">
@@ -7015,39 +6397,38 @@
         <f t="shared" si="0"/>
         <v>-59</v>
       </c>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10">
+      <c r="AI23" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ23">
+        <v>69</v>
+      </c>
       <c r="AK23">
-        <v>69</v>
-      </c>
-      <c r="AL23">
         <v>79</v>
       </c>
-      <c r="AO23" s="10">
+      <c r="AN23" s="8">
         <v>44714</v>
       </c>
+      <c r="AO23">
+        <v>26</v>
+      </c>
       <c r="AP23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AQ23">
-        <v>20</v>
-      </c>
-      <c r="AR23">
         <v>6</v>
       </c>
-      <c r="AS23" s="11">
+      <c r="AR23" s="9">
+        <f>AQ23/AD23*100</f>
+        <v>-10.16949152542373</v>
+      </c>
+      <c r="AT23">
         <f t="shared" si="1"/>
-        <v>-10.16949152542373</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="2"/>
         <v>-43</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C24" t="s">
@@ -7090,39 +6471,38 @@
         <f t="shared" si="0"/>
         <v>-64</v>
       </c>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10">
+      <c r="AI24" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ24">
+        <v>70</v>
+      </c>
       <c r="AK24">
-        <v>70</v>
-      </c>
-      <c r="AL24">
         <v>83</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AN24" s="8">
         <v>44714</v>
       </c>
+      <c r="AO24">
+        <v>20</v>
+      </c>
       <c r="AP24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ24">
-        <v>19</v>
-      </c>
-      <c r="AR24">
         <v>1</v>
       </c>
-      <c r="AS24" s="11">
+      <c r="AR24" s="9">
+        <f>AQ24/AD24*100</f>
+        <v>-1.5625</v>
+      </c>
+      <c r="AT24">
         <f t="shared" si="1"/>
-        <v>-1.5625</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C25" t="s">
@@ -7165,39 +6545,38 @@
         <f t="shared" si="0"/>
         <v>-63</v>
       </c>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10">
+      <c r="AI25" s="8">
         <v>44824</v>
       </c>
+      <c r="AJ25">
+        <v>75</v>
+      </c>
       <c r="AK25">
-        <v>75</v>
-      </c>
-      <c r="AL25">
         <v>81</v>
       </c>
-      <c r="AO25" s="10">
+      <c r="AN25" s="8">
         <v>44714</v>
       </c>
+      <c r="AO25">
+        <v>19</v>
+      </c>
       <c r="AP25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ25">
-        <v>18</v>
-      </c>
-      <c r="AR25">
         <v>1</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AR25" s="9">
+        <f>AQ25/AD25*100</f>
+        <v>-1.5873015873015872</v>
+      </c>
+      <c r="AT25">
         <f t="shared" si="1"/>
-        <v>-1.5873015873015872</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="2"/>
         <v>-56</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C26" t="s">
@@ -7240,18 +6619,20 @@
         <f t="shared" si="0"/>
         <v>-69</v>
       </c>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10">
+      <c r="AI26" s="8">
         <v>44824</v>
+      </c>
+      <c r="AJ26">
+        <v>69</v>
       </c>
       <c r="AK26">
         <v>69</v>
       </c>
-      <c r="AL26">
-        <v>69</v>
-      </c>
-      <c r="AO26" s="10">
+      <c r="AN26" s="8">
         <v>44714</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -7259,24 +6640,21 @@
       <c r="AQ26">
         <v>0</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="9">
+        <f>AQ26/AD26*100</f>
         <v>0</v>
       </c>
-      <c r="AS26" s="11">
+      <c r="AT26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="2"/>
         <v>-69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AR3:AR26">
+  <conditionalFormatting sqref="AQ3:AQ26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7288,7 +6666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:AS26">
+  <conditionalFormatting sqref="AR3:AR26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
